--- a/data/trans_orig/FELICIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FELICIDAD-Clase-trans_orig.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Bienestar emocional - Felicidad escala 0-10</t>
+          <t>Bienestar emocional - Felicidad escala 0-10 (tasa de respuesta: 99,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FELICIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FELICIDAD-Clase-trans_orig.xlsx
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>6,72</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>6,28</t>
+          <t>6,33</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>6,41</t>
+          <t>6,52</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -724,12 +724,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,29; 6,73</t>
+          <t>6,47; 6,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,52; 8,1</t>
+          <t>7,53; 8,07</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,17 +739,17 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,74; 7,0</t>
+          <t>6,75; 7,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 6,55</t>
+          <t>6,1; 6,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,61; 8,11</t>
+          <t>7,6; 8,08</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,12 +759,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,57; 6,88</t>
+          <t>6,55; 6,86</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,25; 6,58</t>
+          <t>6,32; 6,7</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,7; 6,91</t>
+          <t>6,67; 6,89</t>
         </is>
       </c>
     </row>
@@ -796,7 +796,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,45</t>
+          <t>6,44</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,25</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>6,41</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
@@ -864,12 +864,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,09; 6,8</t>
+          <t>6,04; 6,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 8,1</t>
+          <t>7,49; 8,09</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -879,17 +879,17 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,42; 6,78</t>
+          <t>6,39; 6,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>5,99; 6,5</t>
+          <t>6,1; 6,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,37; 7,89</t>
+          <t>7,38; 7,9</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,17 +899,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>6,38; 6,71</t>
+          <t>6,36; 6,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,13; 6,54</t>
+          <t>6,19; 6,65</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,55; 7,94</t>
+          <t>7,54; 7,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>6,43; 6,69</t>
+          <t>6,44; 6,69</t>
         </is>
       </c>
     </row>
@@ -936,7 +936,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,51</t>
+          <t>6,59</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,76</t>
+          <t>5,77</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
@@ -976,7 +976,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,29</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1004,12 +1004,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 6,75</t>
+          <t>6,32; 6,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,71; 9,73</t>
+          <t>7,69; 9,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -1019,17 +1019,17 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 6,8</t>
+          <t>6,18; 6,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,34; 6,17</t>
+          <t>5,33; 6,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,76; 7,63</t>
+          <t>6,77; 7,65</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1044,12 +1044,12 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,07; 6,48</t>
+          <t>6,12; 6,59</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,54; 9,56</t>
+          <t>7,52; 9,56</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,18; 6,65</t>
+          <t>6,19; 6,66</t>
         </is>
       </c>
     </row>
@@ -1076,47 +1076,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>6,36</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7,63</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6,15</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8,23</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>6,3</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>5,92</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>6,1</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1144,12 +1144,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,06; 6,51</t>
+          <t>6,1; 6,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,34; 7,87</t>
+          <t>7,35; 7,88</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,17 +1159,17 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,82</t>
+          <t>6,39; 6,8</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,69; 6,12</t>
+          <t>5,89; 6,43</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>7,31; 9,24</t>
+          <t>7,33; 9,2</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,17 +1179,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 6,59</t>
+          <t>5,99; 6,6</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>5,93; 6,25</t>
+          <t>6,08; 6,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 8,81</t>
+          <t>7,47; 8,86</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>6,24; 6,64</t>
+          <t>6,25; 6,63</t>
         </is>
       </c>
     </row>
@@ -1216,7 +1216,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>6,38</t>
+          <t>6,32</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -1236,7 +1236,7 @@
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>5,68</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>5,91</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,01; 6,73</t>
+          <t>5,88; 6,73</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,86</t>
+          <t>6,99; 7,87</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1299,17 +1299,17 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>6,57; 7,21</t>
+          <t>6,55; 7,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,41; 5,93</t>
+          <t>5,62; 6,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,58; 7,05</t>
+          <t>6,58; 7,06</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1319,17 +1319,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>6,03; 6,76</t>
+          <t>5,98; 6,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 6,12</t>
+          <t>5,87; 6,37</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,8; 7,24</t>
+          <t>6,8; 7,28</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,29; 6,84</t>
+          <t>6,3; 6,87</t>
         </is>
       </c>
     </row>
@@ -1376,7 +1376,7 @@
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>6,11</t>
+          <t>6,35</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1396,7 +1396,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>6,89; 7,67</t>
+          <t>6,69; 7,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>8,12; 9,0</t>
+          <t>8,07; 9,01</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1439,17 +1439,17 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,93; 7,1</t>
+          <t>4,92; 7,14</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>5,84; 6,37</t>
+          <t>6,07; 6,66</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,02; 7,47</t>
+          <t>7,05; 7,47</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1459,17 +1459,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>6,28; 7,08</t>
+          <t>6,26; 7,07</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 6,6</t>
+          <t>6,37; 6,89</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,38; 7,82</t>
+          <t>7,37; 7,81</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,95; 6,92</t>
+          <t>5,99; 6,98</t>
         </is>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,48</t>
+          <t>6,56</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,01</t>
+          <t>6,21</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>6,23</t>
+          <t>6,38</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -1564,12 +1564,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>6,37; 6,6</t>
+          <t>6,44; 6,68</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,74; 8,63</t>
+          <t>7,76; 8,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,59; 6,79</t>
+          <t>6,57; 6,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,91; 6,13</t>
+          <t>6,08; 6,33</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>7,3; 8,34</t>
+          <t>7,28; 8,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 6,62</t>
+          <t>6,4; 6,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,14; 6,3</t>
+          <t>6,29; 6,47</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>7,55; 8,25</t>
+          <t>7,57; 8,28</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,53; 6,67</t>
+          <t>6,53; 6,68</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/FELICIDAD-Clase-trans_orig.xlsx
+++ b/data/trans_orig/FELICIDAD-Clase-trans_orig.xlsx
@@ -568,62 +568,62 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
         </is>
       </c>
     </row>
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>7,86</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>6,87</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>6,94</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>6,72</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,83</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,94</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>6,87</t>
-        </is>
-      </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>7,82</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>6,86</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>6,33</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,87</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>6,86</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
+          <t>7,84</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>6,9</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>6,52</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>7,85</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>6,9</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>7,57; 8,1</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>6,75; 7,01</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>6,81; 7,07</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>6,47; 6,99</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 8,07</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>6,81; 7,07</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>6,75; 7,01</t>
-        </is>
-      </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
+          <t>7,55; 8,04</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 6,86</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 7,0</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
           <t>6,1; 6,59</t>
         </is>
       </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,6; 8,08</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 7,0</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 6,86</t>
-        </is>
-      </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
+          <t>7,66; 8,04</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>6,67; 6,89</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,8; 6,99</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
           <t>6,32; 6,7</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>7,65; 8,03</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 6,99</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>6,67; 6,89</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>7,85</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>6,79</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>6,44</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>7,82</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,79</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
-        </is>
-      </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
+          <t>7,66</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>6,54</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,81</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>6,38</t>
         </is>
       </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>7,77</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
         <is>
           <t>6,81</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>6,54</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>6,41</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>7,74</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>6,81</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>6,57</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>7,53; 8,11</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 6,77</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 6,94</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>6,04; 6,75</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,49; 8,09</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 6,94</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 6,77</t>
-        </is>
-      </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
+          <t>7,37; 7,91</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,36; 6,71</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 6,93</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
           <t>6,1; 6,67</t>
         </is>
       </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>7,38; 7,9</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 6,93</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>6,36; 6,71</t>
-        </is>
-      </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
+          <t>7,57; 7,96</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 6,69</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6,72; 6,89</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
           <t>6,19; 6,65</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>7,54; 7,94</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>6,72; 6,89</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 6,69</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,53</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>6,73</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>6,59</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>8,93</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>6,53</t>
-        </is>
-      </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>7,26</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,26</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
           <t>5,77</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>7,21</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>6,26</t>
-        </is>
-      </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
+          <t>7,62</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>6,44</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>6,71</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>6,38</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>8,64</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>6,71</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>6,44</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>7,47; 8,07</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>6,18; 6,78</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>6,59; 6,86</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
           <t>6,32; 6,85</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>7,69; 9,66</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>6,59; 6,86</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 6,78</t>
-        </is>
-      </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>6,83; 7,69</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5,84; 6,66</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6,44; 6,89</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
           <t>5,33; 6,14</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>6,77; 7,65</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>6,44; 6,89</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 6,66</t>
-        </is>
-      </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
+          <t>7,33; 7,84</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>6,19; 6,66</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 6,83</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
           <t>6,12; 6,59</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 9,56</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 6,83</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>6,19; 6,66</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>7,69</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,62</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>6,36</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>6,62</t>
-        </is>
-      </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>7,42</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>6,3</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>6,15</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>8,23</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,3</t>
-        </is>
-      </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
+          <t>7,57</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>6,46</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>6,25</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>7,96</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>6,46</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>7,46; 7,93</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 6,8</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 6,77</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
           <t>6,1; 6,61</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,35; 7,88</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 6,77</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>6,39; 6,8</t>
-        </is>
-      </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
+          <t>7,23; 7,62</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 6,6</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>6,58; 6,86</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
           <t>5,89; 6,43</t>
         </is>
       </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>7,33; 9,2</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 6,86</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 6,6</t>
-        </is>
-      </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
+          <t>7,4; 7,72</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,25; 6,63</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6,6; 6,78</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
           <t>6,08; 6,44</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,47; 8,86</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>6,6; 6,78</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>6,25; 6,63</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>7,28</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>6,88</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>6,72</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>6,32</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>7,47</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>6,72</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
+          <t>6,93</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>6,42</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>6,51</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
           <t>5,99</t>
         </is>
       </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>6,82</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>6,51</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>6,42</t>
-        </is>
-      </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
+          <t>7,06</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,59</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>6,61</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
           <t>6,11</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>7,04</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>6,61</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>6,59</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>6,83; 7,6</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,55; 7,17</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,49; 6,9</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>5,88; 6,73</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,99; 7,87</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,49; 6,9</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>6,55; 7,17</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
+          <t>6,68; 7,15</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,98; 6,78</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>6,37; 6,65</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
           <t>5,62; 6,31</t>
         </is>
       </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>6,58; 7,06</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>6,37; 6,65</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>5,98; 6,78</t>
-        </is>
-      </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
+          <t>6,84; 7,27</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 6,87</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>6,48; 6,73</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
           <t>5,87; 6,37</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>6,8; 7,28</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>6,48; 6,73</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>6,3; 6,87</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>8,56</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>6,45</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>6,27</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>7,29</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>8,58</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,45</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
+          <t>7,29</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,67</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>5,71</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
           <t>6,35</t>
         </is>
       </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>7,26</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>5,71</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>6,67</t>
-        </is>
-      </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
+          <t>7,59</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>5,96</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
           <t>6,61</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>7,6</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>5,96</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>8,06; 8,95</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>4,92; 7,14</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 6,67</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>6,69; 7,74</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>8,07; 9,01</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>5,27; 6,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>4,92; 7,14</t>
-        </is>
-      </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
+          <t>7,1; 7,5</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>6,26; 7,07</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>4,29; 6,72</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
           <t>6,07; 6,66</t>
         </is>
       </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>7,05; 7,47</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>4,29; 6,72</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>6,26; 7,07</t>
-        </is>
-      </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
+          <t>7,4; 7,8</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>5,99; 6,98</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,03; 6,52</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
           <t>6,37; 6,89</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>7,37; 7,81</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>5,03; 6,52</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>5,99; 6,98</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>7,78</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6,7</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>6,77</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>6,56</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>8,05</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>6,77</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>6,7</t>
-        </is>
-      </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
+          <t>7,38</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>6,52</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>6,73</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
           <t>6,21</t>
         </is>
       </c>
-      <c r="H16" s="2" t="inlineStr">
+      <c r="K16" s="2" t="inlineStr">
         <is>
           <t>7,58</t>
         </is>
       </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>6,73</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>6,52</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>6,6</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>6,75</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
         <is>
           <t>6,38</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>7,81</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>6,75</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>6,6</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>7,65; 7,9</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>6,57; 6,79</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 6,83</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
           <t>6,44; 6,68</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>7,76; 8,61</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 6,83</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>6,57; 6,79</t>
-        </is>
-      </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
+          <t>7,27; 7,48</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6,4; 6,62</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>6,65; 6,79</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
           <t>6,08; 6,33</t>
         </is>
       </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>7,28; 8,21</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>6,65; 6,79</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>6,4; 6,62</t>
-        </is>
-      </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
+          <t>7,5; 7,65</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,53; 6,68</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 6,8</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
           <t>6,29; 6,47</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>7,57; 8,28</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>6,71; 6,8</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,53; 6,68</t>
         </is>
       </c>
     </row>
